--- a/data-raw/fluxes/lf_bay/lf_bay_b_2018-11-11.xlsx
+++ b/data-raw/fluxes/lf_bay/lf_bay_b_2018-11-11.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/will/Documents/data_working/data_packages/hypoxia.flux.analysis.1/inst/extdata/fluxes/lf_bay/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/will/Dropbox (Partners HealthCare)/Copeland.2021.hypoxia.flux/data-raw/fluxes/lf_bay/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BF10EC-1B26-3242-9DD7-F89EAD80A5FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF9976B-B348-6F4C-866D-2BCE97437F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22240" yWindow="980" windowWidth="25600" windowHeight="15540" xr2:uid="{1D4C4C2F-7A99-D141-A4DB-2424DC3A3300}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -196,12 +196,6 @@
     <t>2 Valine</t>
   </si>
   <si>
-    <t>treatment</t>
-  </si>
-  <si>
-    <t>DMSO</t>
-  </si>
-  <si>
     <t>run</t>
   </si>
   <si>
@@ -215,7 +209,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -561,107 +555,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0473DBDA-133C-8E46-809A-4027CD08C62D}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s">
         <v>53</v>
       </c>
+      <c r="B2">
+        <v>-24</v>
+      </c>
       <c r="C2">
-        <v>-24</v>
-      </c>
-      <c r="D2">
         <v>40.282299999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" t="s">
         <v>53</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
       <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
         <v>51.805799999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" t="s">
         <v>53</v>
       </c>
+      <c r="B4">
+        <v>24</v>
+      </c>
       <c r="C4">
-        <v>24</v>
-      </c>
-      <c r="D4">
         <v>51.336300000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" t="s">
         <v>53</v>
       </c>
+      <c r="B5">
+        <v>48</v>
+      </c>
       <c r="C5">
-        <v>48</v>
-      </c>
-      <c r="D5">
         <v>50.926200000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" t="s">
         <v>53</v>
       </c>
+      <c r="B6">
+        <v>72</v>
+      </c>
       <c r="C6">
-        <v>72</v>
-      </c>
-      <c r="D6">
         <v>50.612400000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" t="s">
         <v>53</v>
       </c>
+      <c r="B7">
+        <v>96</v>
+      </c>
       <c r="C7">
-        <v>96</v>
-      </c>
-      <c r="D7">
         <v>50.053800000000003</v>
       </c>
     </row>
@@ -678,11 +653,11 @@
       <selection activeCell="A2" sqref="A2:A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -700,7 +675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -711,7 +686,7 @@
         <v>46081176</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -723,7 +698,7 @@
         <v>21281350</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -735,7 +710,7 @@
         <v>10517399</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -747,7 +722,7 @@
         <v>5542836</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -759,7 +734,7 @@
         <v>3063923</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -770,7 +745,7 @@
         <v>117032</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -787,7 +762,7 @@
         <v>3619586</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -805,7 +780,7 @@
         <v>3993658</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -823,7 +798,7 @@
         <v>2635360</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -841,7 +816,7 @@
         <v>4335530</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -859,7 +834,7 @@
         <v>4633610</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -877,7 +852,7 @@
         <v>4518606</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -895,7 +870,7 @@
         <v>9066805</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -913,7 +888,7 @@
         <v>10293219</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -931,7 +906,7 @@
         <v>10667917</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -949,7 +924,7 @@
         <v>12564788</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -967,7 +942,7 @@
         <v>11640810</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -985,7 +960,7 @@
         <v>11904247</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1003,7 +978,7 @@
         <v>12199354</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1021,7 +996,7 @@
         <v>12773462</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1039,7 +1014,7 @@
         <v>16954844</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1057,7 +1032,7 @@
         <v>3367034</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1075,7 +1050,7 @@
         <v>4393338</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1093,7 +1068,7 @@
         <v>2440525</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1111,7 +1086,7 @@
         <v>3001536</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1129,7 +1104,7 @@
         <v>3466947</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1147,7 +1122,7 @@
         <v>4670932</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1165,7 +1140,7 @@
         <v>2232842</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1183,7 +1158,7 @@
         <v>3385656</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1201,7 +1176,7 @@
         <v>3307562</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1219,7 +1194,7 @@
         <v>4086295</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1237,7 +1212,7 @@
         <v>2848333</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1255,7 +1230,7 @@
         <v>3038452</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1273,7 +1248,7 @@
         <v>2231098</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -1291,7 +1266,7 @@
         <v>2864169</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -1322,11 +1297,11 @@
       <selection activeCell="A2" sqref="A2:A54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1344,7 +1319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1355,7 +1330,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1366,7 +1341,7 @@
         <v>0.15079999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1377,7 +1352,7 @@
         <v>0.2641</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1388,7 +1363,7 @@
         <v>0.42270000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1399,7 +1374,7 @@
         <v>0.54879999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1410,7 +1385,7 @@
         <v>0.7722</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1421,7 +1396,7 @@
         <v>1.0680000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1432,7 +1407,7 @@
         <v>1.3701000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1443,7 +1418,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1455,7 +1430,7 @@
         <v>0.79720000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1467,7 +1442,7 @@
         <v>0.75509999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1479,7 +1454,7 @@
         <v>0.74780000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1491,7 +1466,7 @@
         <v>0.75349999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1503,7 +1478,7 @@
         <v>0.74319999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1515,7 +1490,7 @@
         <v>0.73870000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1527,7 +1502,7 @@
         <v>0.7177</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1539,7 +1514,7 @@
         <v>0.77510000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1551,7 +1526,7 @@
         <v>0.7238</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1563,7 +1538,7 @@
         <v>0.70589999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1575,7 +1550,7 @@
         <v>0.69240000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1587,7 +1562,7 @@
         <v>0.65700000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1599,7 +1574,7 @@
         <v>0.62339999999999995</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1611,7 +1586,7 @@
         <v>0.64139999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1623,7 +1598,7 @@
         <v>0.7611</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1635,7 +1610,7 @@
         <v>0.76239999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1647,7 +1622,7 @@
         <v>0.79430000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1659,7 +1634,7 @@
         <v>0.78700000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1671,7 +1646,7 @@
         <v>0.80420000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1683,7 +1658,7 @@
         <v>0.78639999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1695,7 +1670,7 @@
         <v>0.79990000000000006</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1707,7 +1682,7 @@
         <v>0.71940000000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1719,7 +1694,7 @@
         <v>0.74590000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1731,7 +1706,7 @@
         <v>0.77200000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1743,7 +1718,7 @@
         <v>0.73140000000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -1755,7 +1730,7 @@
         <v>0.78390000000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -1767,7 +1742,7 @@
         <v>0.77459999999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -1779,7 +1754,7 @@
         <v>0.6855</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1791,7 +1766,7 @@
         <v>0.74060000000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -1803,7 +1778,7 @@
         <v>0.79039999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -1815,7 +1790,7 @@
         <v>0.76829999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -1827,7 +1802,7 @@
         <v>0.77980000000000005</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -1839,7 +1814,7 @@
         <v>0.82069999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -1851,7 +1826,7 @@
         <v>0.82099999999999995</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -1863,7 +1838,7 @@
         <v>0.78859999999999997</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -1875,7 +1850,7 @@
         <v>0.82299999999999995</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -1887,7 +1862,7 @@
         <v>0.7792</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -1899,7 +1874,7 @@
         <v>0.82210000000000005</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -1911,7 +1886,7 @@
         <v>0.83760000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -1923,7 +1898,7 @@
         <v>0.85860000000000003</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -1935,7 +1910,7 @@
         <v>0.8458</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -1947,7 +1922,7 @@
         <v>0.83050000000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -1959,7 +1934,7 @@
         <v>0.80379999999999996</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -1984,11 +1959,11 @@
       <selection activeCell="A2" sqref="A2:A54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2006,7 +1981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2017,7 +1992,7 @@
         <v>123920400</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2028,7 +2003,7 @@
         <v>159468736</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2039,7 +2014,7 @@
         <v>208507840</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2050,7 +2025,7 @@
         <v>319209056</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2061,7 +2036,7 @@
         <v>556640128</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2072,7 +2047,7 @@
         <v>1091023744</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2083,7 +2058,7 @@
         <v>1604773504</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -2094,7 +2069,7 @@
         <v>2615394304</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2105,7 +2080,7 @@
         <v>122226496</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -2117,7 +2092,7 @@
         <v>122435480</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -2129,7 +2104,7 @@
         <v>121606304</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2141,7 +2116,7 @@
         <v>191893552</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -2153,7 +2128,7 @@
         <v>197745664</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2165,7 +2140,7 @@
         <v>202044064</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -2177,7 +2152,7 @@
         <v>367431680</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -2189,7 +2164,7 @@
         <v>360757248</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2201,7 +2176,7 @@
         <v>393585216</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -2213,7 +2188,7 @@
         <v>624932096</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -2225,7 +2200,7 @@
         <v>593286784</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -2237,7 +2212,7 @@
         <v>612116800</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -2249,7 +2224,7 @@
         <v>1036757632</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -2261,7 +2236,7 @@
         <v>927801728</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -2273,7 +2248,7 @@
         <v>990670784</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -2285,7 +2260,7 @@
         <v>122658368</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -2297,7 +2272,7 @@
         <v>124131752</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -2309,7 +2284,7 @@
         <v>125730176</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2321,7 +2296,7 @@
         <v>194823824</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -2333,7 +2308,7 @@
         <v>195513056</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -2345,7 +2320,7 @@
         <v>197632640</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -2357,7 +2332,7 @@
         <v>296923520</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -2369,7 +2344,7 @@
         <v>288560544</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -2381,7 +2356,7 @@
         <v>282322048</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -2393,7 +2368,7 @@
         <v>382802752</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -2405,7 +2380,7 @@
         <v>439188640</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -2417,7 +2392,7 @@
         <v>431828096</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -2429,7 +2404,7 @@
         <v>596870208</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -2441,7 +2416,7 @@
         <v>591278400</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -2453,7 +2428,7 @@
         <v>549163968</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -2465,7 +2440,7 @@
         <v>115913888</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -2477,7 +2452,7 @@
         <v>121772704</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -2489,7 +2464,7 @@
         <v>119333032</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -2501,7 +2476,7 @@
         <v>119768344</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -2513,7 +2488,7 @@
         <v>123826536</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -2525,7 +2500,7 @@
         <v>117029320</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -2537,7 +2512,7 @@
         <v>116967600</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -2549,7 +2524,7 @@
         <v>115390672</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -2561,7 +2536,7 @@
         <v>115862440</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -2573,7 +2548,7 @@
         <v>119266440</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -2585,7 +2560,7 @@
         <v>119650792</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -2597,7 +2572,7 @@
         <v>120573832</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -2609,7 +2584,7 @@
         <v>120544144</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -2621,7 +2596,7 @@
         <v>118974560</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -2646,11 +2621,11 @@
       <selection activeCell="A2" sqref="A2:A54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2668,7 +2643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2679,7 +2654,7 @@
         <v>25909932</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2690,7 +2665,7 @@
         <v>40726540</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2701,7 +2676,7 @@
         <v>55303084</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2712,7 +2687,7 @@
         <v>103690608</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2723,7 +2698,7 @@
         <v>203349600</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2734,7 +2709,7 @@
         <v>341944800</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2745,7 +2720,7 @@
         <v>462289440</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -2756,7 +2731,7 @@
         <v>579484736</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2767,7 +2742,7 @@
         <v>282317792</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -2779,7 +2754,7 @@
         <v>295051840</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -2791,7 +2766,7 @@
         <v>292219008</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2803,7 +2778,7 @@
         <v>286512128</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -2815,7 +2790,7 @@
         <v>275373632</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2827,7 +2802,7 @@
         <v>285833280</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -2839,7 +2814,7 @@
         <v>265692976</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -2851,7 +2826,7 @@
         <v>266060240</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2863,7 +2838,7 @@
         <v>268504384</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -2875,7 +2850,7 @@
         <v>227954032</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -2887,7 +2862,7 @@
         <v>249068128</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -2899,7 +2874,7 @@
         <v>243761872</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -2911,7 +2886,7 @@
         <v>205042656</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -2923,7 +2898,7 @@
         <v>183560176</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -2935,7 +2910,7 @@
         <v>201019536</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -2947,7 +2922,7 @@
         <v>304145760</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -2959,7 +2934,7 @@
         <v>276780576</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -2971,7 +2946,7 @@
         <v>296734848</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2983,7 +2958,7 @@
         <v>294401856</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -2995,7 +2970,7 @@
         <v>288987008</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -3007,7 +2982,7 @@
         <v>287107872</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -3019,7 +2994,7 @@
         <v>315383136</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -3031,7 +3006,7 @@
         <v>319040448</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -3043,7 +3018,7 @@
         <v>310597376</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -3055,7 +3030,7 @@
         <v>288621504</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -3067,7 +3042,7 @@
         <v>263050384</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -3079,7 +3054,7 @@
         <v>295397056</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -3091,7 +3066,7 @@
         <v>293341504</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -3103,7 +3078,7 @@
         <v>284851136</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -3115,7 +3090,7 @@
         <v>289109056</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -3127,7 +3102,7 @@
         <v>308242528</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -3139,7 +3114,7 @@
         <v>326501728</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -3151,7 +3126,7 @@
         <v>288522016</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -3163,7 +3138,7 @@
         <v>315991520</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -3175,7 +3150,7 @@
         <v>299216992</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -3187,7 +3162,7 @@
         <v>323524192</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -3199,7 +3174,7 @@
         <v>329363200</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -3211,7 +3186,7 @@
         <v>326967648</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -3223,7 +3198,7 @@
         <v>329534944</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -3235,7 +3210,7 @@
         <v>335485376</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -3247,7 +3222,7 @@
         <v>315954336</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -3259,7 +3234,7 @@
         <v>318809184</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -3271,7 +3246,7 @@
         <v>364218368</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -3283,7 +3258,7 @@
         <v>330648608</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -3308,11 +3283,11 @@
       <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3456,7 +3431,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3596,7 +3571,7 @@
         <v>32.214700000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3739,7 +3714,7 @@
         <v>82.695400000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3882,7 +3857,7 @@
         <v>344.45979999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4025,7 +4000,7 @@
         <v>887.57039999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4165,7 +4140,7 @@
         <v>2370.3047000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -4305,7 +4280,7 @@
         <v>1824.7074</v>
       </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -4445,7 +4420,7 @@
         <v>1846.4565</v>
       </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -4588,7 +4563,7 @@
         <v>2292.6702</v>
       </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -4728,7 +4703,7 @@
         <v>1875.5171</v>
       </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -4868,7 +4843,7 @@
         <v>1885.1309000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -5008,7 +4983,7 @@
         <v>2170.0785999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -5148,7 +5123,7 @@
         <v>1847.856</v>
       </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -5288,7 +5263,7 @@
         <v>1976.5302999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -5428,7 +5403,7 @@
         <v>1849.9518</v>
       </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -5568,7 +5543,7 @@
         <v>1980.8928000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -5708,7 +5683,7 @@
         <v>1797.0545999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -5851,7 +5826,7 @@
         <v>2129.5817999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -5994,7 +5969,7 @@
         <v>2231.1837999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -6137,7 +6112,7 @@
         <v>1973.2842000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -6280,7 +6255,7 @@
         <v>2342.8523</v>
       </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -6420,7 +6395,7 @@
         <v>2185.2246</v>
       </c>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -6563,7 +6538,7 @@
         <v>2196.2914999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:48">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -6703,7 +6678,7 @@
         <v>1900.8004000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:48">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -6843,7 +6818,7 @@
         <v>1937.3239000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:48">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -6983,7 +6958,7 @@
         <v>2089.5857000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:48">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -7123,7 +7098,7 @@
         <v>2157.8494000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:48">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -7263,7 +7238,7 @@
         <v>2117.2602999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:48">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -7403,7 +7378,7 @@
         <v>1903.2781</v>
       </c>
     </row>
-    <row r="30" spans="1:48">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -7543,7 +7518,7 @@
         <v>1932.2882999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:48">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -7683,7 +7658,7 @@
         <v>2141.0344</v>
       </c>
     </row>
-    <row r="32" spans="1:48">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -7826,7 +7801,7 @@
         <v>2211.6062000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:48">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -7969,7 +7944,7 @@
         <v>2307.2051000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:48">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -8109,7 +8084,7 @@
         <v>1992.4227000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:48">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -8252,7 +8227,7 @@
         <v>2002.6927000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:48">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -8392,7 +8367,7 @@
         <v>1958.2329999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:48">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -8532,7 +8507,7 @@
         <v>1957.0885000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:48">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -8672,7 +8647,7 @@
         <v>2012.4403</v>
       </c>
     </row>
-    <row r="39" spans="1:48">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -8815,7 +8790,7 @@
         <v>2120.3022000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:48">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -8955,7 +8930,7 @@
         <v>1961.5619999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:48">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -9095,7 +9070,7 @@
         <v>2149.7366000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:48">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -9235,7 +9210,7 @@
         <v>1909.3396</v>
       </c>
     </row>
-    <row r="43" spans="1:48">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -9378,7 +9353,7 @@
         <v>2135.1152000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:48">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -9518,7 +9493,7 @@
         <v>2112.4135999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:48">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -9658,7 +9633,7 @@
         <v>2217.8933000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:48">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -9798,7 +9773,7 @@
         <v>2210.7440999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:48">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -9938,7 +9913,7 @@
         <v>2101.9567999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:48">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -10078,7 +10053,7 @@
         <v>2144.0729999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:48">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -10221,7 +10196,7 @@
         <v>2246.5070999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:48">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -10364,7 +10339,7 @@
         <v>2107.0999000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:48">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
